--- a/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,51%</t>
+          <t>-14,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>-18,82%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 9,25</t>
+          <t>-30,9; 9,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 6,07</t>
+          <t>-34,78; 6,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 15,24</t>
+          <t>-37,11; 15,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 9,5</t>
+          <t>-42,38; 9,66</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 9,6</t>
+          <t>-1,39; 22,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 10,41</t>
+          <t>-1,76; 23,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 11,95</t>
+          <t>-1,43; 32,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 13,25</t>
+          <t>-1,91; 34,08</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 7,37</t>
+          <t>-1,64; 13,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 9,67</t>
+          <t>-0,5; 16,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,22</t>
+          <t>-1,7; 15,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 11,01</t>
+          <t>-0,5; 19,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 6,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 10,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 11,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 13,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 14,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,08</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-14,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-14,83%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-18,82%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-11.07705524054127</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-11.64864744813725</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.148334550544375</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1537361636177335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-30,9; 9,49</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-34,78; 6,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-37,11; 15,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-42,38; 9,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-30.89696189275248</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-31.67603038221828</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3710613864396283</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3876979286409409</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.491624383742726</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.724599884255838</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1510201818403923</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1267875546882987</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 22,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 23,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 32,76</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 34,08</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.431936322334685</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.911679177188967</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.07664785812517706</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.06950635920159821</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.394094760574884</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.97194934674656</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.01426115396304231</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.02150834629915413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 13,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 16,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 15,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 19,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.84114012928341</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>21.77496922177999</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3276170211986877</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3050945804740142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.64025197221267</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.620834407993256</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.02782449371611713</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.03829977422437227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.636610808296937</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7624377230058761</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.01700809878540598</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.007713761985774899</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.16839876022157</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.92225088205082</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1530831638384793</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1921774397716212</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 10,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 11,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 13,13</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 14,38</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.887208299111232</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.840795104478355</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03326062603841057</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.03249959515741136</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.475996634405016</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.425867867592635</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.02718946697581059</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.02621084802301385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.4124846961906</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.68815823019859</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1312718850326103</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1328221763130333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
